--- a/F_dataset/DUD-E/WEE1/WEE1_prepare/WEE1_total.xlsx
+++ b/F_dataset/DUD-E/WEE1/WEE1_prepare/WEE1_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T204"/>
+  <dimension ref="A1:T179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10859,2106 +10859,6 @@
       <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr"/>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>CHEMBL369296</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>1</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(OCC(N)=O)cc3)nc21</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(OCC(N)=O)cc3)nc21</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G180" t="n">
-        <v>470.32</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>6</v>
-      </c>
-      <c r="J180" t="n">
-        <v>6</v>
-      </c>
-      <c r="K180" t="n">
-        <v>4</v>
-      </c>
-      <c r="L180" t="n">
-        <v>4</v>
-      </c>
-      <c r="M180" t="n">
-        <v>112.13</v>
-      </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O180" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P180" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q180" t="n">
-        <v>250</v>
-      </c>
-      <c r="R180" t="inlineStr">
-        <is>
-          <t>CHEMBL829373</t>
-        </is>
-      </c>
-      <c r="S180" t="inlineStr">
-        <is>
-          <t>Inhibition of checkpoint kinase Wee1</t>
-        </is>
-      </c>
-      <c r="T180" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>CHEMBL1976040</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>1</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>C=CCn1c(=O)c2cnc(Nc3ccc(N4CCN(C)CC4)cc3)nc2n1-c1cccc(C(C)(C)O)n1</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>C=CCn1c(=O)c2cnc(Nc3ccc(N4CCN(C)CC4)cc3)nc2n1-c1cccc(C(C)(C)O)n1</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
-        <v>500.61</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>8</v>
-      </c>
-      <c r="J181" t="n">
-        <v>7</v>
-      </c>
-      <c r="K181" t="n">
-        <v>5</v>
-      </c>
-      <c r="L181" t="n">
-        <v>4</v>
-      </c>
-      <c r="M181" t="n">
-        <v>104.34</v>
-      </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q181" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="R181" t="inlineStr">
-        <is>
-          <t>CHEMBL4233140</t>
-        </is>
-      </c>
-      <c r="S181" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human Wee1 using poly(Lys,Tyr) as substrate after 30 mins in presence of [gamma-33P]-ATP by liquid scintillation counting method</t>
-        </is>
-      </c>
-      <c r="T181" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>CHEMBL211878</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>1</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>COc1ccc2[nH]c3cc(-c4ccccc4Cl)c4c(c3c2c1)C(=O)NC4=O</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>COc1ccc2[nH]c3cc(-c4ccccc4Cl)c4c(c3c2c1)C(=O)NC4=O</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
-        <v>376.8</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>3</v>
-      </c>
-      <c r="J182" t="n">
-        <v>2</v>
-      </c>
-      <c r="K182" t="n">
-        <v>5</v>
-      </c>
-      <c r="L182" t="n">
-        <v>4</v>
-      </c>
-      <c r="M182" t="n">
-        <v>71.19</v>
-      </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P182" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q182" t="n">
-        <v>641.88</v>
-      </c>
-      <c r="R182" t="inlineStr">
-        <is>
-          <t>CHEMBL1006579</t>
-        </is>
-      </c>
-      <c r="S182" t="inlineStr">
-        <is>
-          <t>Inhibition of human Wee1</t>
-        </is>
-      </c>
-      <c r="T182" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>CHEMBL214341</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>1</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Cc1c(-c2ccccc2)c2c(c3c1[nH]c1ccc(O)cc13)C(=O)NC2=O</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Cc1c(-c2ccccc2)c2c(c3c1[nH]c1ccc(O)cc13)C(=O)NC2=O</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
-        <v>342.35</v>
-      </c>
-      <c r="H183" t="n">
-        <v>3</v>
-      </c>
-      <c r="I183" t="n">
-        <v>3</v>
-      </c>
-      <c r="J183" t="n">
-        <v>1</v>
-      </c>
-      <c r="K183" t="n">
-        <v>5</v>
-      </c>
-      <c r="L183" t="n">
-        <v>4</v>
-      </c>
-      <c r="M183" t="n">
-        <v>82.19</v>
-      </c>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O183" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P183" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q183" t="n">
-        <v>129.61</v>
-      </c>
-      <c r="R183" t="inlineStr">
-        <is>
-          <t>CHEMBL864855</t>
-        </is>
-      </c>
-      <c r="S183" t="inlineStr">
-        <is>
-          <t>Inhibition of human Wee1 in presence of 9.5 uM ATP</t>
-        </is>
-      </c>
-      <c r="T183" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>CHEMBL512341</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>1</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>COc1ccccc1-c1cc2c(c3c1C(=O)NC3=O)c1cc(O)ccc1n2CCCO</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>COc1ccccc1-c1cc2c(c3c1C(=O)NC3=O)c1cc(O)ccc1n2CCCO</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
-        <v>416.43</v>
-      </c>
-      <c r="H184" t="n">
-        <v>3</v>
-      </c>
-      <c r="I184" t="n">
-        <v>5</v>
-      </c>
-      <c r="J184" t="n">
-        <v>5</v>
-      </c>
-      <c r="K184" t="n">
-        <v>5</v>
-      </c>
-      <c r="L184" t="n">
-        <v>4</v>
-      </c>
-      <c r="M184" t="n">
-        <v>100.79</v>
-      </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q184" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="R184" t="inlineStr">
-        <is>
-          <t>CHEMBL1000360</t>
-        </is>
-      </c>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>Inhibition of human Wee1 assessed as polyornithine-tyrosine copolymer phosphorylation</t>
-        </is>
-      </c>
-      <c r="T184" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>CHEMBL400146</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>1</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Cc1cc(=O)c2c(O)cc3c(c2o1)C(=O)c1c(O)cc(O)cc1C3=O</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Cc1cc(=O)c2c(O)cc3c(c2o1)C(=O)c1c(O)cc(O)cc1C3=O</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G185" t="n">
-        <v>338.27</v>
-      </c>
-      <c r="H185" t="n">
-        <v>3</v>
-      </c>
-      <c r="I185" t="n">
-        <v>7</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0</v>
-      </c>
-      <c r="K185" t="n">
-        <v>4</v>
-      </c>
-      <c r="L185" t="n">
-        <v>4</v>
-      </c>
-      <c r="M185" t="n">
-        <v>125.04</v>
-      </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P185" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q185" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R185" t="inlineStr">
-        <is>
-          <t>CHEMBL1815757</t>
-        </is>
-      </c>
-      <c r="S185" t="inlineStr">
-        <is>
-          <t>Binding affinity to weel kinase</t>
-        </is>
-      </c>
-      <c r="T185" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>CHEMBL288441</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>1</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>COc1cc(Nc2c(C#N)cnc3cc(OCCCN4CCN(C)CC4)c(OC)cc23)c(Cl)cc1Cl</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>COc1cc(Nc2c(C#N)cnc3cc(OCCCN4CCN(C)CC4)c(OC)cc23)c(Cl)cc1Cl</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G186" t="n">
-        <v>530.46</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>8</v>
-      </c>
-      <c r="J186" t="n">
-        <v>9</v>
-      </c>
-      <c r="K186" t="n">
-        <v>4</v>
-      </c>
-      <c r="L186" t="n">
-        <v>3</v>
-      </c>
-      <c r="M186" t="n">
-        <v>82.88</v>
-      </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P186" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q186" t="n">
-        <v>510</v>
-      </c>
-      <c r="R186" t="inlineStr">
-        <is>
-          <t>CHEMBL1908611</t>
-        </is>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>Binding constant for WEE1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T186" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>CHEMBL1287853</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>1</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Cc1cnc(Nc2ccc(OCCN3CCCC3)cc2)nc1Nc1cccc(S(=O)(=O)NC(C)(C)C)c1</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Cc1cnc(Nc2ccc(OCCN3CCCC3)cc2)nc1Nc1cccc(S(=O)(=O)NC(C)(C)C)c1</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G187" t="n">
-        <v>524.6900000000001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>3</v>
-      </c>
-      <c r="I187" t="n">
-        <v>8</v>
-      </c>
-      <c r="J187" t="n">
-        <v>10</v>
-      </c>
-      <c r="K187" t="n">
-        <v>4</v>
-      </c>
-      <c r="L187" t="n">
-        <v>3</v>
-      </c>
-      <c r="M187" t="n">
-        <v>108.48</v>
-      </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q187" t="n">
-        <v>390</v>
-      </c>
-      <c r="R187" t="inlineStr">
-        <is>
-          <t>CHEMBL1908611</t>
-        </is>
-      </c>
-      <c r="S187" t="inlineStr">
-        <is>
-          <t>Binding constant for WEE1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T187" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>CHEMBL3355519</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>1</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>O=c1c2cnc(Nc3ccccc3)nc2n2ccnc2n1-c1ccccc1Cl</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>O=c1c2cnc(Nc3ccccc3)nc2n2ccnc2n1-c1ccccc1Cl</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G188" t="n">
-        <v>388.82</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>5</v>
-      </c>
-      <c r="J188" t="n">
-        <v>3</v>
-      </c>
-      <c r="K188" t="n">
-        <v>5</v>
-      </c>
-      <c r="L188" t="n">
-        <v>5</v>
-      </c>
-      <c r="M188" t="n">
-        <v>77.11</v>
-      </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P188" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q188" t="n">
-        <v>21</v>
-      </c>
-      <c r="R188" t="inlineStr">
-        <is>
-          <t>CHEMBL3372984</t>
-        </is>
-      </c>
-      <c r="S188" t="inlineStr">
-        <is>
-          <t>Inhibition of GST-tagged human Wee1</t>
-        </is>
-      </c>
-      <c r="T188" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>CHEMBL475251</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>1</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>COc1cc(Nc2ncc(F)c(Nc3ccc4c(n3)NC(=O)C(C)(C)O4)n2)cc(OC)c1OC</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>COc1cc(Nc2ncc(F)c(Nc3ccc4c(n3)NC(=O)C(C)(C)O4)n2)cc(OC)c1OC</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G189" t="n">
-        <v>470.46</v>
-      </c>
-      <c r="H189" t="n">
-        <v>3</v>
-      </c>
-      <c r="I189" t="n">
-        <v>10</v>
-      </c>
-      <c r="J189" t="n">
-        <v>7</v>
-      </c>
-      <c r="K189" t="n">
-        <v>4</v>
-      </c>
-      <c r="L189" t="n">
-        <v>3</v>
-      </c>
-      <c r="M189" t="n">
-        <v>128.75</v>
-      </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P189" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q189" t="n">
-        <v>890</v>
-      </c>
-      <c r="R189" t="inlineStr">
-        <is>
-          <t>CHEMBL1908611</t>
-        </is>
-      </c>
-      <c r="S189" t="inlineStr">
-        <is>
-          <t>Binding constant for WEE1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T189" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>CHEMBL384293</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>0</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)c2c1c(-c1cccc(-c3ccccc3)c1)cc1[nH]c3ccc(O)cc3c21</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)c2c1c(-c1cccc(-c3ccccc3)c1)cc1[nH]c3ccc(O)cc3c21</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G190" t="n">
-        <v>404.43</v>
-      </c>
-      <c r="H190" t="n">
-        <v>3</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3</v>
-      </c>
-      <c r="J190" t="n">
-        <v>2</v>
-      </c>
-      <c r="K190" t="n">
-        <v>6</v>
-      </c>
-      <c r="L190" t="n">
-        <v>5</v>
-      </c>
-      <c r="M190" t="n">
-        <v>82.19</v>
-      </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O190" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P190" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q190" t="n">
-        <v>40000</v>
-      </c>
-      <c r="R190" t="inlineStr">
-        <is>
-          <t>CHEMBL864855</t>
-        </is>
-      </c>
-      <c r="S190" t="inlineStr">
-        <is>
-          <t>Inhibition of human Wee1 in presence of 9.5 uM ATP</t>
-        </is>
-      </c>
-      <c r="T190" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>CHEMBL4528675</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>0</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G191" t="n">
-        <v>535.55</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>7</v>
-      </c>
-      <c r="J191" t="n">
-        <v>7</v>
-      </c>
-      <c r="K191" t="n">
-        <v>5</v>
-      </c>
-      <c r="L191" t="n">
-        <v>4</v>
-      </c>
-      <c r="M191" t="n">
-        <v>107.06</v>
-      </c>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O191" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P191" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q191" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="R191" t="inlineStr">
-        <is>
-          <t>CHEMBL4366639</t>
-        </is>
-      </c>
-      <c r="S191" t="inlineStr">
-        <is>
-          <t>Inhibition of human WEE1 at 100 nM using MBP as substrate by [gamma-33P]-ATP assay</t>
-        </is>
-      </c>
-      <c r="T191" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>CHEMBL4207014</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>0</v>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G192" t="n">
-        <v>405.44</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>7</v>
-      </c>
-      <c r="J192" t="n">
-        <v>3</v>
-      </c>
-      <c r="K192" t="n">
-        <v>5</v>
-      </c>
-      <c r="L192" t="n">
-        <v>5</v>
-      </c>
-      <c r="M192" t="n">
-        <v>132.44</v>
-      </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O192" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P192" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q192" t="n">
-        <v>1</v>
-      </c>
-      <c r="R192" t="inlineStr">
-        <is>
-          <t>CHEMBL4191232</t>
-        </is>
-      </c>
-      <c r="S192" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human Wee1 (214 to end residues) at 1 uM using LSNLYHQGKFLQTFCGSPLYRRR as substrate after 40 mins in presence of [gamma-33P]ATP by scintillation counting method</t>
-        </is>
-      </c>
-      <c r="T192" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>CHEMBL3628627</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>0</v>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1cccc(Nc2nccc(-c3sc(N4CCOCC4)nc3-c3cccc(NS(=O)(=O)c4c(F)cccc4F)c3)n2)c1</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1cccc(Nc2nccc(-c3sc(N4CCOCC4)nc3-c3cccc(NS(=O)(=O)c4c(F)cccc4F)c3)n2)c1</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G193" t="n">
-        <v>684.77</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>10</v>
-      </c>
-      <c r="J193" t="n">
-        <v>9</v>
-      </c>
-      <c r="K193" t="n">
-        <v>6</v>
-      </c>
-      <c r="L193" t="n">
-        <v>5</v>
-      </c>
-      <c r="M193" t="n">
-        <v>143.48</v>
-      </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P193" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q193" t="n">
-        <v>-33.13</v>
-      </c>
-      <c r="R193" t="inlineStr">
-        <is>
-          <t>CHEMBL3631623</t>
-        </is>
-      </c>
-      <c r="S193" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
-        </is>
-      </c>
-      <c r="T193" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>CHEMBL2402081</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>0</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G194" t="n">
-        <v>432.46</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>6</v>
-      </c>
-      <c r="J194" t="n">
-        <v>4</v>
-      </c>
-      <c r="K194" t="n">
-        <v>5</v>
-      </c>
-      <c r="L194" t="n">
-        <v>4</v>
-      </c>
-      <c r="M194" t="n">
-        <v>84.97</v>
-      </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P194" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q194" t="n">
-        <v>11</v>
-      </c>
-      <c r="R194" t="inlineStr">
-        <is>
-          <t>CHEMBL2405481</t>
-        </is>
-      </c>
-      <c r="S194" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 (unknown origin) at 10 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T194" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>CHEMBL3815093</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>0</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>CNS(=O)(=O)c1ccc(N(C)C)c(Nc2ncnc3cc(OC)c(OC)cc23)c1</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>CNS(=O)(=O)c1ccc(N(C)C)c(Nc2ncnc3cc(OC)c(OC)cc23)c1</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G195" t="n">
-        <v>417.49</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>8</v>
-      </c>
-      <c r="J195" t="n">
-        <v>7</v>
-      </c>
-      <c r="K195" t="n">
-        <v>3</v>
-      </c>
-      <c r="L195" t="n">
-        <v>3</v>
-      </c>
-      <c r="M195" t="n">
-        <v>105.68</v>
-      </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P195" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R195" t="inlineStr">
-        <is>
-          <t>CHEMBL3816877</t>
-        </is>
-      </c>
-      <c r="S195" t="inlineStr">
-        <is>
-          <t>Inhibition of human WEE1 at 1 uM using MBP substrate</t>
-        </is>
-      </c>
-      <c r="T195" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>CHEMBL166031</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>0</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G196" t="n">
-        <v>352.39</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>5</v>
-      </c>
-      <c r="J196" t="n">
-        <v>4</v>
-      </c>
-      <c r="K196" t="n">
-        <v>3</v>
-      </c>
-      <c r="L196" t="n">
-        <v>3</v>
-      </c>
-      <c r="M196" t="n">
-        <v>89.28</v>
-      </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P196" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q196" t="n">
-        <v>-4.91</v>
-      </c>
-      <c r="R196" t="inlineStr">
-        <is>
-          <t>CHEMBL3631623</t>
-        </is>
-      </c>
-      <c r="S196" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
-        </is>
-      </c>
-      <c r="T196" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>CHEMBL4459587</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>0</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>C=CS(=O)(=O)Nc1ccc(Cc2ccc3ccccc3c2)cc1</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>C=CS(=O)(=O)Nc1ccc(Cc2ccc3ccccc3c2)cc1</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G197" t="n">
-        <v>323.42</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>2</v>
-      </c>
-      <c r="J197" t="n">
-        <v>5</v>
-      </c>
-      <c r="K197" t="n">
-        <v>3</v>
-      </c>
-      <c r="L197" t="n">
-        <v>3</v>
-      </c>
-      <c r="M197" t="n">
-        <v>46.17</v>
-      </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P197" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q197" t="n">
-        <v>-4</v>
-      </c>
-      <c r="R197" t="inlineStr">
-        <is>
-          <t>CHEMBL4378983</t>
-        </is>
-      </c>
-      <c r="S197" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human Wee1 (214 to end residues) at 10 uM using LSNLYHQGKFLQTFCGSPLYRRR as substrate measured after 40 mins in presence of [gamm33P]ATP by scintillation counting method relative to control</t>
-        </is>
-      </c>
-      <c r="T197" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>CHEMBL4548580</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>0</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>CN(C)C(=O)c1cc2cnc(Nc3ccc(NC(=O)CCCCCCCN=C=S)cc3)nc2n1C1CCCC1</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>CN(C)C(=O)c1cc2cnc(Nc3ccc(NC(=O)CCCCCCCN=C=S)cc3)nc2n1C1CCCC1</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G198" t="n">
-        <v>547.73</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>6</v>
-      </c>
-      <c r="J198" t="n">
-        <v>13</v>
-      </c>
-      <c r="K198" t="n">
-        <v>4</v>
-      </c>
-      <c r="L198" t="n">
-        <v>3</v>
-      </c>
-      <c r="M198" t="n">
-        <v>104.51</v>
-      </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O198" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P198" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q198" t="n">
-        <v>8</v>
-      </c>
-      <c r="R198" t="inlineStr">
-        <is>
-          <t>CHEMBL4377975</t>
-        </is>
-      </c>
-      <c r="S198" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human Wee1 (214 to end residues) at 1 uM using LSNLYHQGKFLQTFCGSPLYRRR as substrate measured after 40 mins in presence of [gamma33P]ATP by scintillation counting method relative to control</t>
-        </is>
-      </c>
-      <c r="T198" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>CHEMBL2012574</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>0</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G199" t="n">
-        <v>337.35</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>3</v>
-      </c>
-      <c r="J199" t="n">
-        <v>5</v>
-      </c>
-      <c r="K199" t="n">
-        <v>3</v>
-      </c>
-      <c r="L199" t="n">
-        <v>3</v>
-      </c>
-      <c r="M199" t="n">
-        <v>53.07</v>
-      </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O199" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P199" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q199" t="n">
-        <v>0</v>
-      </c>
-      <c r="R199" t="inlineStr">
-        <is>
-          <t>CHEMBL2015527</t>
-        </is>
-      </c>
-      <c r="S199" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T199" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>CHEMBL2170414</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>0</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>NC(=O)c1ccc(Nc2ncc(F)c(Nc3ccccc3Cl)n2)cc1</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>NC(=O)c1ccc(Nc2ncc(F)c(Nc3ccccc3Cl)n2)cc1</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G200" t="n">
-        <v>357.78</v>
-      </c>
-      <c r="H200" t="n">
-        <v>3</v>
-      </c>
-      <c r="I200" t="n">
-        <v>5</v>
-      </c>
-      <c r="J200" t="n">
-        <v>5</v>
-      </c>
-      <c r="K200" t="n">
-        <v>3</v>
-      </c>
-      <c r="L200" t="n">
-        <v>3</v>
-      </c>
-      <c r="M200" t="n">
-        <v>92.93000000000001</v>
-      </c>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O200" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P200" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q200" t="n">
-        <v>16</v>
-      </c>
-      <c r="R200" t="inlineStr">
-        <is>
-          <t>CHEMBL2174406</t>
-        </is>
-      </c>
-      <c r="S200" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 at 1 uM by 33P kinase hotspot assay</t>
-        </is>
-      </c>
-      <c r="T200" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>CHEMBL3628628</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>0</v>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>COCCNC(=O)c1ccc2c(c1)nc(-c1cnc(-c3ccc(Cl)cc3)[nH]1)n2CCOC</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>COCCNC(=O)c1ccc2c(c1)nc(-c1cnc(-c3ccc(Cl)cc3)[nH]1)n2CCOC</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G201" t="n">
-        <v>453.93</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>5</v>
-      </c>
-      <c r="J201" t="n">
-        <v>9</v>
-      </c>
-      <c r="K201" t="n">
-        <v>4</v>
-      </c>
-      <c r="L201" t="n">
-        <v>4</v>
-      </c>
-      <c r="M201" t="n">
-        <v>94.06</v>
-      </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O201" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P201" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q201" t="n">
-        <v>-30.02</v>
-      </c>
-      <c r="R201" t="inlineStr">
-        <is>
-          <t>CHEMBL3631623</t>
-        </is>
-      </c>
-      <c r="S201" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
-        </is>
-      </c>
-      <c r="T201" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>CHEMBL4084955</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>0</v>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>c1cc(-c2c[nH]c3cnccc23)ccn1</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>c1cc(-c2c[nH]c3cnccc23)ccn1</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G202" t="n">
-        <v>195.22</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>2</v>
-      </c>
-      <c r="J202" t="n">
-        <v>1</v>
-      </c>
-      <c r="K202" t="n">
-        <v>3</v>
-      </c>
-      <c r="L202" t="n">
-        <v>3</v>
-      </c>
-      <c r="M202" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="N202" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q202" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="R202" t="inlineStr">
-        <is>
-          <t>CHEMBL4034515</t>
-        </is>
-      </c>
-      <c r="S202" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 Lysine 2 labelling site (unknown origin) at 10 uM</t>
-        </is>
-      </c>
-      <c r="T202" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>CHEMBL3746293</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>0</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Cc1c(-c2cc(Nc3cc4n(n3)CCN(C)C4)c(=O)[nH]n2)ccc(F)c1NC(=O)c1cc2ccccc2s1</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Cc1c(-c2cc(Nc3cc4n(n3)CCN(C)C4)c(=O)[nH]n2)ccc(F)c1NC(=O)c1cc2ccccc2s1</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G203" t="n">
-        <v>529.6</v>
-      </c>
-      <c r="H203" t="n">
-        <v>3</v>
-      </c>
-      <c r="I203" t="n">
-        <v>6</v>
-      </c>
-      <c r="J203" t="n">
-        <v>5</v>
-      </c>
-      <c r="K203" t="n">
-        <v>6</v>
-      </c>
-      <c r="L203" t="n">
-        <v>5</v>
-      </c>
-      <c r="M203" t="n">
-        <v>107.94</v>
-      </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P203" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q203" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="R203" t="inlineStr">
-        <is>
-          <t>CHEMBL3751119</t>
-        </is>
-      </c>
-      <c r="S203" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 (unknown origin) at 1 uM</t>
-        </is>
-      </c>
-      <c r="T203" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>CHEMBL5081774</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>0</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>[2H]C([2H])([2H])C1(C([2H])([2H])[2H])Cn2nc(-c3ccc(F)cn3)c(-c3ccnc4[nH]ncc34)c2CO1</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>[2H]C([2H])([2H])C1(C([2H])([2H])[2H])Cn2nc(-c3ccc(F)cn3)c(-c3ccnc4[nH]ncc34)c2CO1</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G204" t="n">
-        <v>370.42</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>5</v>
-      </c>
-      <c r="J204" t="n">
-        <v>4</v>
-      </c>
-      <c r="K204" t="n">
-        <v>5</v>
-      </c>
-      <c r="L204" t="n">
-        <v>4</v>
-      </c>
-      <c r="M204" t="n">
-        <v>81.51000000000001</v>
-      </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O204" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P204" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q204" t="n">
-        <v>10</v>
-      </c>
-      <c r="R204" t="inlineStr">
-        <is>
-          <t>CHEMBL5059363</t>
-        </is>
-      </c>
-      <c r="S204" t="inlineStr">
-        <is>
-          <t>Wee1(h) Kinase panel</t>
-        </is>
-      </c>
-      <c r="T204" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
